--- a/crawldata/프린터크롤링_2019-01-01_12-45-00.xlsx
+++ b/crawldata/프린터크롤링_2019-01-01_12-45-00.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonwon/Documents/crawldata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonwon/Downloads/crawling/crawldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D0EEB-D875-AE4D-937F-599380143866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CB8D6-6CD5-CF4C-92B5-7B7B0616DD71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{F11770BB-2CFA-7447-A183-71691AED6260}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,143 +28,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>부서명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>토너(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토너(C)</t>
   </si>
   <si>
     <t>토너(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토너(C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>토너(Y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드럼(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드럼(C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드럼(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드럼(Y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프린터담당관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sindoh D417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sindoh D711</t>
+  </si>
+  <si>
+    <t>Sindoh CM3091</t>
   </si>
   <si>
     <t>Xerox DCIVC2265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>양호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무화과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xerox APVC2275</t>
+  </si>
+  <si>
+    <t>Xerox APVC3373</t>
+  </si>
+  <si>
+    <t>Xerox DCVC3374</t>
+  </si>
+  <si>
+    <t>Xerox DCVC3376</t>
+  </si>
+  <si>
+    <t>소모품 준비</t>
+  </si>
+  <si>
+    <t>Xerox DCVIC3371</t>
+  </si>
+  <si>
+    <t>Xerox DPC5005D</t>
+  </si>
+  <si>
+    <t>Xerox DCVC5585</t>
+  </si>
+  <si>
+    <t>품질 수명 완료</t>
+  </si>
+  <si>
+    <t>Black 토너(K1): 100, Black 토너(K2): 25</t>
+  </si>
+  <si>
+    <t>Xerox DPC1110</t>
+  </si>
+  <si>
+    <t>Xerox DPC2200</t>
+  </si>
+  <si>
+    <t>OKI C843DTN</t>
+  </si>
+  <si>
+    <t>Sindoh B605n</t>
   </si>
   <si>
     <t>Xerox DP3055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OKI ES5112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링 결과 예시임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정통보신과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통보신안담당관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅이데터담당관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전정산보과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정간보담당관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통정신보과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전보산과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전홍산보과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통산신과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기예획산과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행지정원과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문체화육과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍담보당관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감담사당관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건증강진과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사회무국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자순원환과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDF00"/>
+        <bgColor rgb="FFFFDF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,21 +261,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,44 +302,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -280,32 +366,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -332,24 +400,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,159 +411,194 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F770749-771A-9643-BBA3-2113C06791BF}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -553,111 +638,565 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.1")</f>
+        <v>http://192.168.0.1</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>57</v>
-      </c>
-      <c r="G2">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>42</v>
-      </c>
-      <c r="J2">
-        <v>42</v>
-      </c>
-      <c r="K2">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
+      <c r="J2" s="3">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
+      <c r="C3" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.2")</f>
+        <v>http://192.168.0.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="G3" s="3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>88</v>
+      </c>
+      <c r="I3">
+        <v>87</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.3")</f>
+        <v>http://192.168.0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>50</v>
+      <c r="J4" s="2">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.4")</f>
+        <v>http://192.168.0.4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.5")</f>
+        <v>http://192.168.0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.6")</f>
+        <v>http://192.168.0.6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.7")</f>
+        <v>http://192.168.0.7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.8")</f>
+        <v>http://192.168.0.8</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.9")</f>
+        <v>http://192.168.0.9</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.10")</f>
+        <v>http://192.168.0.10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.11")</f>
+        <v>http://192.168.0.11</v>
+      </c>
+      <c r="D12" s="3">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.12")</f>
+        <v>http://192.168.0.12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13">
         <v>60</v>
       </c>
-      <c r="H5">
-        <v>80</v>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.13")</f>
+        <v>http://192.168.0.13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.14")</f>
+        <v>http://192.168.0.14</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.15")</f>
+        <v>http://192.168.0.15</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.16")</f>
+        <v>http://192.168.0.16</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>HYPERLINK("http://192.168.0.17")</f>
+        <v>http://192.168.0.17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>